--- a/EDA资料整理.xlsx
+++ b/EDA资料整理.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\论文\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>Evolutionary Computation</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -369,6 +369,20 @@
   </si>
   <si>
     <t>IJPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gesture segmentation based on a two-phase estimation of distribution algorithm</t>
+  </si>
+  <si>
+    <t>IS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Distance-based Two-stage Ecological Driving System using an Estimation of Distribution Algorithm and Model Predictive Control</t>
+  </si>
+  <si>
+    <t>TVT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,6 +517,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -510,24 +542,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -945,42 +959,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -997,78 +1011,78 @@
       <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="13"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="6"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="6"/>
       <c r="J9" s="3"/>
     </row>
@@ -1157,50 +1171,50 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
@@ -1336,13 +1350,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A2:D2"/>
@@ -1352,6 +1359,13 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
@@ -1371,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1386,28 +1400,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1424,12 +1438,12 @@
       <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -1867,6 +1881,28 @@
       </c>
       <c r="G30" s="10" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2017</v>
+      </c>
+      <c r="E31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2017</v>
+      </c>
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/EDA资料整理.xlsx
+++ b/EDA资料整理.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t>Evolutionary Computation</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -385,12 +385,80 @@
     <t>TVT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Multimodal Estimation of Distribution Algorithms</t>
+  </si>
+  <si>
+    <t>TC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSEDA: A Heuristic Selection Approach Based on Estimation of Distribution Algorithm for the Travelling Thief Problem</t>
+  </si>
+  <si>
+    <t>GECOO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pairwise independence and its impact on Estimation of Distribution Algorithms</t>
+  </si>
+  <si>
+    <t>SEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On the model updating operators in univariate estimation of distribution algorithms</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Estimation of Distribution Algorithm-Based Memetic Algorithm for the Distributed Assembly Permutation Flow-Shop Scheduling Problem</t>
+  </si>
+  <si>
+    <t>TSMCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Personalized Search Inspired Fast Interactive Estimation of Distribution Algorithm and Its Application</t>
+  </si>
+  <si>
+    <t>TEVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving estimation of distribution algorithm on multimodal problems by detecting promising areas</t>
+  </si>
+  <si>
+    <t>Estimation of Distribution Algorithm with  Stochastic Local Search for Uncertain  Capacitated Arc Routing Problems</t>
+  </si>
+  <si>
+    <t>An Estimation of Distribution Algorithm With Cheap and Expensive Local Search Methods</t>
+  </si>
+  <si>
+    <t>A Boltzmann-Based Estimation of Distributed Algorithm for a General Resource Scheduling Model</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiobjective Estimation of Distribution Algorithm Based on Joint Modeling of Objectives and Variables</t>
+  </si>
+  <si>
+    <t>Multi-Objective Optimization with Estimation of Distribution Algorithm in a Noisy Environment</t>
+  </si>
+  <si>
+    <t>A Novel Graph-Based Estimation of the Distribution Algorithm and Its Extension Using Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Scaling Up Estimation of Distributed Algorithms for Continuous Optimization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +521,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -479,7 +561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,14 +589,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -534,14 +619,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -959,42 +1062,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1011,78 +1114,78 @@
       <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="19"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="6"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="6"/>
       <c r="J9" s="3"/>
     </row>
@@ -1171,50 +1274,50 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
@@ -1350,6 +1453,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A2:D2"/>
@@ -1359,13 +1469,6 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
@@ -1385,43 +1488,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="117.375" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="86.375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="29.75" customWidth="1"/>
     <col min="10" max="10" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1438,12 +1544,12 @@
       <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -1458,7 +1564,7 @@
       <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F3" t="s">
@@ -1468,7 +1574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>2009</v>
       </c>
@@ -1481,7 +1587,7 @@
       <c r="D4" s="8">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="19" t="s">
         <v>39</v>
       </c>
       <c r="F4" t="s">
@@ -1491,7 +1597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -1504,7 +1610,7 @@
       <c r="D5">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="19" t="s">
         <v>42</v>
       </c>
       <c r="F5" t="s">
@@ -1524,7 +1630,7 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="19" t="s">
         <v>43</v>
       </c>
       <c r="F6" t="s">
@@ -1539,7 +1645,7 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" t="s">
+      <c r="E7" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F7" t="s">
@@ -1552,7 +1658,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2012</v>
       </c>
@@ -1565,7 +1671,7 @@
       <c r="D8" s="8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1574,7 +1680,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" t="s">
+      <c r="E9" s="19" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1589,7 +1695,7 @@
       <c r="D10" s="8">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1604,7 +1710,7 @@
       <c r="D11" s="8">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1618,14 +1724,14 @@
       <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -1638,7 +1744,7 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="27" t="s">
         <v>52</v>
       </c>
       <c r="G13" t="s">
@@ -1655,14 +1761,14 @@
       <c r="D14">
         <v>4</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="22" t="s">
         <v>54</v>
       </c>
       <c r="G14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2006</v>
       </c>
@@ -1672,14 +1778,14 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2012</v>
       </c>
@@ -1689,7 +1795,7 @@
       <c r="D16">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="19" t="s">
         <v>58</v>
       </c>
       <c r="G16" t="s">
@@ -1700,10 +1806,10 @@
       <c r="A17">
         <v>2004</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1711,7 +1817,7 @@
       <c r="A18">
         <v>2006</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="19" t="s">
         <v>61</v>
       </c>
       <c r="G18" t="s">
@@ -1728,14 +1834,14 @@
       <c r="D19">
         <v>32</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -1745,10 +1851,10 @@
       <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1759,14 +1865,14 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2003</v>
       </c>
@@ -1776,10 +1882,10 @@
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1793,10 +1899,10 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1804,14 +1910,14 @@
       <c r="A24">
         <v>2006</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -1821,32 +1927,32 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2008</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2013</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1854,32 +1960,32 @@
       <c r="A28">
         <v>2007</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2009</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2017</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1887,22 +1993,281 @@
       <c r="A31">
         <v>2017</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2017</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2017</v>
+      </c>
+      <c r="C33">
+        <v>47</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2017</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2016</v>
+      </c>
+      <c r="C35">
+        <v>27</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2016</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2015</v>
+      </c>
+      <c r="C37">
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2017</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="25">
+        <v>2015</v>
+      </c>
+      <c r="B39" s="25">
+        <v>8</v>
+      </c>
+      <c r="C39" s="25">
+        <v>45</v>
+      </c>
+      <c r="D39" s="25">
+        <v>8</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2016</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2015</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2015</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2018</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2013</v>
+      </c>
+      <c r="C44">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2014</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2013</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1917,10 +2282,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12 J13:J14 J16 I17:I19 I21 I24 I26 J27 I28:I29 J30:J1048576 J1:J11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12 J13:J14 J16 I17:I19 I21 I24 I26 J27 I28:I29 J1:J11 J30:J33 I34 J35 J37:J1048576">
       <formula1>"完成,处理中,待命"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F19 F21 F24 F26:F1048576 F1:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F19 F21 F24 F1:F14 F26:F35 F37:F1048576">
       <formula1>"是,否,待命"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I1:I2">
@@ -1928,5 +2293,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EDA资料整理.xlsx
+++ b/EDA资料整理.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
   <si>
     <t>Evolutionary Computation</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -408,7 +408,7 @@
   </si>
   <si>
     <t>On the model updating operators in univariate estimation of distribution algorithms</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>NC</t>
@@ -422,9 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Personalized Search Inspired Fast Interactive Estimation of Distribution Algorithm and Its Application</t>
-  </si>
-  <si>
     <t>TEVC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,6 +449,37 @@
   </si>
   <si>
     <t>Scaling Up Estimation of Distributed Algorithms for Continuous Optimization</t>
+  </si>
+  <si>
+    <t>On the Convergence of a Class of Estimation of Distribution Algorithms</t>
+  </si>
+  <si>
+    <t>Protein Folding in Simplified Models With Estimation of Distribution Algorithms</t>
+  </si>
+  <si>
+    <t>Latent Variable Model for Estimation of Distribution Algorithm Based on a Probabilistic Context-Free Grammar</t>
+  </si>
+  <si>
+    <t>Approximating the Set of Pareto-Optimal Solutions in Both the Decision and Objective Spaces by an Estimation of Distribution Algorithm</t>
+  </si>
+  <si>
+    <t>Analysis of Computational Time of Simple Estimation of Distribution Algorithms</t>
+  </si>
+  <si>
+    <t>Personalized Search Inspired Fast Interactive Estimation of Distribution Algorithm and Its Application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDA-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDA-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -522,16 +550,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -586,12 +613,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,32 +670,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1046,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J3"/>
+      <selection activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1061,47 +1088,51 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
@@ -1114,82 +1145,83 @@
       <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="6"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="6"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1201,7 +1233,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1213,7 +1245,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1225,7 +1257,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1237,7 +1269,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1249,7 +1281,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1261,7 +1293,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1274,50 +1306,50 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
@@ -1452,7 +1484,7 @@
       <c r="J30" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A7:J7"/>
@@ -1460,7 +1492,6 @@
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
@@ -1469,10 +1500,12 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"有,无"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
@@ -1488,106 +1521,117 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="86.375" style="19" customWidth="1"/>
+    <col min="1" max="4" width="9" style="13"/>
+    <col min="5" max="5" width="86.375" style="10" customWidth="1"/>
     <col min="6" max="6" width="5.625" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="8" width="29.75" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
     <col min="10" max="10" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="20" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="K1" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="E2" s="27"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
         <v>2008</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="13">
         <v>12</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
       </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
       <c r="J3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="K3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
         <v>2009</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="13">
         <v>9</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="13">
         <v>36</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="13">
         <v>9</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="10" t="s">
         <v>39</v>
       </c>
       <c r="F4" t="s">
@@ -1597,20 +1641,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
         <v>2013</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="13">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="13">
         <v>51</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="13">
         <v>12</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F5" t="s">
@@ -1620,17 +1664,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
         <v>2004</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="13">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F6" t="s">
@@ -1640,12 +1684,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="19" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E7" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F7" t="s">
@@ -1658,144 +1698,144 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
         <v>2012</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="13">
         <v>39</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="13">
         <v>2</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="19" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E9" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
         <v>2007</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8">
+      <c r="C10" s="13">
         <v>58</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="13">
         <v>12</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
         <v>2012</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8">
+      <c r="C11" s="13">
         <v>62</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="13">
         <v>4</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
         <v>2009</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="13">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="13">
         <v>5</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
         <v>2014</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="13">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="13">
         <v>18</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="13">
         <v>2</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="17" t="s">
         <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="K13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
         <v>2011</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="13">
         <v>60</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="13">
         <v>4</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
         <v>2006</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="13">
         <v>128</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="13">
         <v>1</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
         <v>2012</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="13">
         <v>42</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="13">
         <v>5</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="10" t="s">
         <v>58</v>
       </c>
       <c r="G16" t="s">
@@ -1803,21 +1843,21 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="13">
         <v>2004</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="13">
         <v>2006</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="10" t="s">
         <v>61</v>
       </c>
       <c r="G18" t="s">
@@ -1825,453 +1865,581 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="13">
         <v>2007</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="13">
         <v>32</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="13">
         <v>32</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="13">
         <v>2011</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="13">
         <v>38</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="13">
         <v>4</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="13">
         <v>2004</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="13">
         <v>2</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="13">
         <v>2003</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="13">
         <v>19</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="13">
         <v>2</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="13">
         <v>2007</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="13">
         <v>155</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="13">
         <v>1</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="13">
         <v>2006</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="13">
         <v>2013</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="13">
         <v>145</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="13">
         <v>1</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="13">
         <v>2008</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="13">
         <v>2013</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
         <v>2007</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="13">
         <v>2009</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="13">
         <v>2017</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="13">
         <v>2017</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="13">
         <v>2017</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
         <v>2017</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="13">
         <v>47</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="13">
         <v>3</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
         <v>2017</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
         <v>2016</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="13">
         <v>27</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
         <v>2016</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="13">
         <v>15</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="13">
         <v>1</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
         <v>2015</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="13">
         <v>46</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="13">
         <v>1</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="13">
         <v>2017</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="13">
         <v>8</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="13">
         <v>21</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="13">
         <v>4</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G38" s="9" t="s">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B39" s="13">
+        <v>8</v>
+      </c>
+      <c r="C39" s="13">
+        <v>45</v>
+      </c>
+      <c r="D39" s="13">
+        <v>8</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="25">
+      <c r="G39" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="13">
+        <v>2016</v>
+      </c>
+      <c r="C40" s="13">
+        <v>20</v>
+      </c>
+      <c r="D40" s="13">
+        <v>1</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="13">
         <v>2015</v>
       </c>
-      <c r="B39" s="25">
-        <v>8</v>
-      </c>
-      <c r="C39" s="25">
-        <v>45</v>
-      </c>
-      <c r="D39" s="25">
-        <v>8</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2016</v>
-      </c>
-      <c r="C40">
-        <v>20</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="24" t="s">
+      <c r="B41" s="13">
+        <v>12</v>
+      </c>
+      <c r="C41" s="13">
+        <v>19</v>
+      </c>
+      <c r="D41" s="13">
+        <v>6</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>2015</v>
-      </c>
-      <c r="B41">
-        <v>12</v>
-      </c>
-      <c r="C41">
-        <v>19</v>
-      </c>
-      <c r="D41">
-        <v>6</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>100</v>
       </c>
       <c r="F41" t="s">
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
+        <v>96</v>
+      </c>
+      <c r="K41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="13">
         <v>2015</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="13">
         <v>12</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="13">
         <v>19</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="13">
         <v>6</v>
       </c>
-      <c r="E42" s="26" t="s">
-        <v>101</v>
+      <c r="E42" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="F42" t="s">
         <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>2018</v>
-      </c>
-      <c r="B43">
+        <v>96</v>
+      </c>
+      <c r="K42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B43" s="13">
         <v>8</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="13">
         <v>18</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="13">
         <v>4</v>
       </c>
-      <c r="E43" s="21" t="s">
-        <v>102</v>
+      <c r="E43" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="F43" t="s">
         <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
+        <v>96</v>
+      </c>
+      <c r="K43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
         <v>2013</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="13">
         <v>21</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="13">
         <v>1</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B45" s="13">
+        <v>2</v>
+      </c>
+      <c r="C45" s="13">
+        <v>18</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G44" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="G45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="13">
+        <v>2013</v>
+      </c>
+      <c r="B46" s="13">
+        <v>12</v>
+      </c>
+      <c r="C46" s="13">
+        <v>17</v>
+      </c>
+      <c r="D46" s="13">
+        <v>6</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" t="s">
+        <v>96</v>
+      </c>
+      <c r="K46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="13">
+        <v>2004</v>
+      </c>
+      <c r="B47" s="13">
+        <v>4</v>
+      </c>
+      <c r="C47" s="13">
+        <v>8</v>
+      </c>
+      <c r="D47" s="13">
+        <v>2</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="13">
+        <v>2008</v>
+      </c>
+      <c r="B48" s="13">
+        <v>8</v>
+      </c>
+      <c r="C48" s="13">
+        <v>12</v>
+      </c>
+      <c r="D48" s="13">
+        <v>4</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="13">
+        <v>2009</v>
+      </c>
+      <c r="B49" s="13">
+        <v>8</v>
+      </c>
+      <c r="C49" s="13">
+        <v>13</v>
+      </c>
+      <c r="D49" s="13">
+        <v>4</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <v>2009</v>
+      </c>
+      <c r="B50" s="13">
+        <v>10</v>
+      </c>
+      <c r="C50" s="13">
+        <v>13</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
         <v>2014</v>
       </c>
-      <c r="B45">
+      <c r="B51" s="13">
         <v>2</v>
       </c>
-      <c r="C45">
+      <c r="C51" s="13">
         <v>18</v>
       </c>
-      <c r="D45">
+      <c r="D51" s="13">
         <v>1</v>
       </c>
-      <c r="E45" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="G45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>2013</v>
-      </c>
-      <c r="B46">
-        <v>12</v>
-      </c>
-      <c r="C46">
-        <v>17</v>
-      </c>
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" t="s">
-        <v>97</v>
+      <c r="E51" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:D1"/>

--- a/EDA资料整理.xlsx
+++ b/EDA资料整理.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
   <si>
     <t>Evolutionary Computation</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -479,6 +479,17 @@
   </si>
   <si>
     <t>EDA-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An introduction and survey of estimation of distribution algorithms</t>
+  </si>
+  <si>
+    <t>SEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,6 +655,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -651,24 +680,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1089,46 +1100,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="25" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1145,79 +1156,79 @@
       <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="6"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="6"/>
       <c r="J9" s="3"/>
     </row>
@@ -1306,50 +1317,50 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
@@ -1485,13 +1496,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
@@ -1500,8 +1506,13 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
@@ -1521,12 +1532,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1540,31 +1551,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="25" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1582,12 +1593,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="27"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
@@ -2380,7 +2391,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <v>2009</v>
       </c>
@@ -2400,7 +2411,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <v>2009</v>
       </c>
@@ -2417,7 +2428,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <v>2014</v>
       </c>
@@ -2435,6 +2446,32 @@
       </c>
       <c r="G51" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="13">
+        <v>9</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1</v>
+      </c>
+      <c r="D52" s="13">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" t="s">
+        <v>115</v>
+      </c>
+      <c r="J52" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
